--- a/Code/Results/Cases/Case_5_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8281063142442804</v>
+        <v>0.3025718484990989</v>
       </c>
       <c r="C2">
-        <v>0.1353273681358473</v>
+        <v>0.04309411454018175</v>
       </c>
       <c r="D2">
-        <v>0.1480580643623028</v>
+        <v>0.1772371813364657</v>
       </c>
       <c r="E2">
-        <v>0.1023907520936618</v>
+        <v>0.1615492402676253</v>
       </c>
       <c r="F2">
-        <v>0.7829511759207364</v>
+        <v>1.558199454538709</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3651890691640816</v>
+        <v>0.8049193884203945</v>
       </c>
       <c r="J2">
-        <v>0.1018914488206448</v>
+        <v>0.1895558923542069</v>
       </c>
       <c r="K2">
-        <v>0.9111185562954063</v>
+        <v>0.3220167570321166</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3207401485875963</v>
+        <v>0.2139809486866682</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.845462052957402</v>
+        <v>3.843357082501726</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.721053265140057</v>
+        <v>0.2701544156444413</v>
       </c>
       <c r="C3">
-        <v>0.1183041415347361</v>
+        <v>0.03790341381315443</v>
       </c>
       <c r="D3">
-        <v>0.1321502281747371</v>
+        <v>0.1736252473569238</v>
       </c>
       <c r="E3">
-        <v>0.09453619561450921</v>
+        <v>0.1603666926146907</v>
       </c>
       <c r="F3">
-        <v>0.7663484862810321</v>
+        <v>1.564409928655657</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3727052225986363</v>
+        <v>0.8123006490207594</v>
       </c>
       <c r="J3">
-        <v>0.09726063608336943</v>
+        <v>0.1895573463846745</v>
       </c>
       <c r="K3">
-        <v>0.7938781383875835</v>
+        <v>0.2864403919674601</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2798988089321099</v>
+        <v>0.2030191540003656</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.83985315395546</v>
+        <v>3.868572058196321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6553629482550605</v>
+        <v>0.2502584296813666</v>
       </c>
       <c r="C4">
-        <v>0.107857036598503</v>
+        <v>0.03471053536303259</v>
       </c>
       <c r="D4">
-        <v>0.1224726594694516</v>
+        <v>0.1714742075439233</v>
       </c>
       <c r="E4">
-        <v>0.08982322514852115</v>
+        <v>0.159710537953675</v>
       </c>
       <c r="F4">
-        <v>0.7575242136964491</v>
+        <v>1.568984973308076</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3780465236899744</v>
+        <v>0.8172196170061099</v>
       </c>
       <c r="J4">
-        <v>0.09456765549801815</v>
+        <v>0.1896458857224843</v>
       </c>
       <c r="K4">
-        <v>0.7219323662828856</v>
+        <v>0.2645940953208878</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2549461747295787</v>
+        <v>0.1963630088338277</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.839995573591438</v>
+        <v>3.885972563945444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6285956191112518</v>
+        <v>0.2421532912149189</v>
       </c>
       <c r="C5">
-        <v>0.1035995470460875</v>
+        <v>0.03340802738127024</v>
       </c>
       <c r="D5">
-        <v>0.1185498926232924</v>
+        <v>0.1706145094831868</v>
       </c>
       <c r="E5">
-        <v>0.08792878351461297</v>
+        <v>0.15946077961285</v>
       </c>
       <c r="F5">
-        <v>0.7542589572939988</v>
+        <v>1.571041033467566</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3803997575160345</v>
+        <v>0.8193214236659756</v>
       </c>
       <c r="J5">
-        <v>0.09350633285632171</v>
+        <v>0.1897040295657249</v>
       </c>
       <c r="K5">
-        <v>0.6926147316221289</v>
+        <v>0.2556915205097141</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2448048085741448</v>
+        <v>0.1936694803239938</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.840920996567974</v>
+        <v>3.893545944850473</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6241508145339765</v>
+        <v>0.2408076135645558</v>
       </c>
       <c r="C6">
-        <v>0.102892538705305</v>
+        <v>0.03319166527978723</v>
       </c>
       <c r="D6">
-        <v>0.1178997360419487</v>
+        <v>0.1704727788734886</v>
       </c>
       <c r="E6">
-        <v>0.08761574964174557</v>
+        <v>0.1594203735475297</v>
       </c>
       <c r="F6">
-        <v>0.7537363476833718</v>
+        <v>1.571394022390791</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3808010056477968</v>
+        <v>0.8196763033330079</v>
       </c>
       <c r="J6">
-        <v>0.09333223195989149</v>
+        <v>0.189715017582138</v>
       </c>
       <c r="K6">
-        <v>0.6877463510109436</v>
+        <v>0.2542132687093925</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.243122357478736</v>
+        <v>0.1932233692416254</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.841126074077778</v>
+        <v>3.894832646777573</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.655001957087876</v>
+        <v>0.2501491095899837</v>
       </c>
       <c r="C7">
-        <v>0.1077996214015968</v>
+        <v>0.03469297480204148</v>
       </c>
       <c r="D7">
-        <v>0.1224196731243836</v>
+        <v>0.1714625449290992</v>
       </c>
       <c r="E7">
-        <v>0.08979757212765449</v>
+        <v>0.1597070981829205</v>
       </c>
       <c r="F7">
-        <v>0.7574788559999917</v>
+        <v>1.569011925722023</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3780775529133678</v>
+        <v>0.8172475687777983</v>
       </c>
       <c r="J7">
-        <v>0.0945531982214618</v>
+        <v>0.1896465805048848</v>
       </c>
       <c r="K7">
-        <v>0.7215369868473545</v>
+        <v>0.2644740314967606</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2548093006133882</v>
+        <v>0.1963266061750062</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.840004586473668</v>
+        <v>3.88607274727454</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7911808506925126</v>
+        <v>0.2913928612525751</v>
       </c>
       <c r="C8">
-        <v>0.1294557251010104</v>
+        <v>0.04130559595199657</v>
       </c>
       <c r="D8">
-        <v>0.1425533361649798</v>
+        <v>0.1759779981410503</v>
       </c>
       <c r="E8">
-        <v>0.09965881326954573</v>
+        <v>0.1611270088996726</v>
       </c>
       <c r="F8">
-        <v>0.7769337749460803</v>
+        <v>1.560182795438941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3676261666273355</v>
+        <v>0.807384165058032</v>
       </c>
       <c r="J8">
-        <v>0.1002624762489646</v>
+        <v>0.1895382165538564</v>
       </c>
       <c r="K8">
-        <v>0.8706799016503339</v>
+        <v>0.3097508076795066</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3066297018801691</v>
+        <v>0.2101859793158098</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.842762543925744</v>
+        <v>3.851653118463162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.058957371231571</v>
+        <v>0.3723202437822124</v>
       </c>
       <c r="C9">
-        <v>0.1720400501397563</v>
+        <v>0.05422488829779581</v>
       </c>
       <c r="D9">
-        <v>0.1828309703773527</v>
+        <v>0.1853584434145574</v>
       </c>
       <c r="E9">
-        <v>0.1199382171816268</v>
+        <v>0.16446469926478</v>
       </c>
       <c r="F9">
-        <v>0.8266090983974337</v>
+        <v>1.548908488752915</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3531800562878331</v>
+        <v>0.791110994519844</v>
       </c>
       <c r="J9">
-        <v>0.1127336331297428</v>
+        <v>0.1900203076769671</v>
       </c>
       <c r="K9">
-        <v>1.163928307332526</v>
+        <v>0.3985011947384294</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4094383489675835</v>
+        <v>0.2379481681597184</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.878263086301445</v>
+        <v>3.799373690857834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.256758898629187</v>
+        <v>0.4317881612395809</v>
       </c>
       <c r="C10">
-        <v>0.2035127512310453</v>
+        <v>0.06368527213962238</v>
       </c>
       <c r="D10">
-        <v>0.2130314740619781</v>
+        <v>0.192566744385033</v>
       </c>
       <c r="E10">
-        <v>0.1355165137081258</v>
+        <v>0.1672524102339707</v>
       </c>
       <c r="F10">
-        <v>0.8710963491053008</v>
+        <v>1.544302173874485</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.346672615345387</v>
+        <v>0.7810253816209709</v>
       </c>
       <c r="J10">
-        <v>0.1227952873689802</v>
+        <v>0.1907971141277329</v>
       </c>
       <c r="K10">
-        <v>1.380553927380021</v>
+        <v>0.4636639504626316</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4860047743710112</v>
+        <v>0.2586943497033118</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.925097394657115</v>
+        <v>3.770237344603004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.34712448864272</v>
+        <v>0.4588402955390336</v>
       </c>
       <c r="C11">
-        <v>0.217898601501588</v>
+        <v>0.06798182917664519</v>
       </c>
       <c r="D11">
-        <v>0.2269319211431906</v>
+        <v>0.1959139221464739</v>
       </c>
       <c r="E11">
-        <v>0.1427757960519891</v>
+        <v>0.168593118261537</v>
       </c>
       <c r="F11">
-        <v>0.8932983893418651</v>
+        <v>1.543004106692621</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3447027328610233</v>
+        <v>0.7768431767387192</v>
       </c>
       <c r="J11">
-        <v>0.1275966497463017</v>
+        <v>0.1912421149287837</v>
       </c>
       <c r="K11">
-        <v>1.479526250579454</v>
+        <v>0.4932953036928893</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5211346572343842</v>
+        <v>0.2682068844891035</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.951479961424241</v>
+        <v>3.758995532142421</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.381411868608922</v>
+        <v>0.4690837789742943</v>
       </c>
       <c r="C12">
-        <v>0.2233584757283609</v>
+        <v>0.0696077601963907</v>
       </c>
       <c r="D12">
-        <v>0.2322215152785674</v>
+        <v>0.1971911171033298</v>
       </c>
       <c r="E12">
-        <v>0.1455517076842732</v>
+        <v>0.1691112057528201</v>
       </c>
       <c r="F12">
-        <v>0.9020085709408505</v>
+        <v>1.542627120182715</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3441080670544743</v>
+        <v>0.7753178332257171</v>
       </c>
       <c r="J12">
-        <v>0.1294496064100699</v>
+        <v>0.1914237823454243</v>
       </c>
       <c r="K12">
-        <v>1.517080753183023</v>
+        <v>0.5045138142900782</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5344869152934564</v>
+        <v>0.2718196598879885</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.962251463392448</v>
+        <v>3.755027872163481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.374024238210296</v>
+        <v>0.4668776958376384</v>
       </c>
       <c r="C13">
-        <v>0.2221820087883657</v>
+        <v>0.06925763612919411</v>
       </c>
       <c r="D13">
-        <v>0.2310811178166148</v>
+        <v>0.1969156208699161</v>
       </c>
       <c r="E13">
-        <v>0.144952629712094</v>
+        <v>0.1689991649281062</v>
       </c>
       <c r="F13">
-        <v>0.9001188754532734</v>
+        <v>1.542703217291745</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3442292628865857</v>
+        <v>0.775643747138087</v>
       </c>
       <c r="J13">
-        <v>0.1290489497437477</v>
+        <v>0.1913840722627924</v>
       </c>
       <c r="K13">
-        <v>1.508989108209732</v>
+        <v>0.5020978162128245</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5316089687721828</v>
+        <v>0.2710411164637279</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.959896045319425</v>
+        <v>3.75586950920777</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.349943896052622</v>
+        <v>0.459683047740981</v>
       </c>
       <c r="C14">
-        <v>0.2183475285520728</v>
+        <v>0.06811561759695905</v>
       </c>
       <c r="D14">
-        <v>0.2273665673866105</v>
+        <v>0.1960188040823709</v>
       </c>
       <c r="E14">
-        <v>0.1430036184243093</v>
+        <v>0.1686355336444549</v>
       </c>
       <c r="F14">
-        <v>0.8940087927808378</v>
+        <v>1.542970796324482</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3446507244276553</v>
+        <v>0.776716515971426</v>
       </c>
       <c r="J14">
-        <v>0.1277483813250981</v>
+        <v>0.1912567972837209</v>
       </c>
       <c r="K14">
-        <v>1.482614276930292</v>
+        <v>0.4942183055426028</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5222321292813206</v>
+        <v>0.2685038986967996</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.952350183240611</v>
+        <v>3.758663311063344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.335203221652591</v>
+        <v>0.4552760269953069</v>
       </c>
       <c r="C15">
-        <v>0.2160004696671365</v>
+        <v>0.06741595522838395</v>
       </c>
       <c r="D15">
-        <v>0.2250947341579774</v>
+        <v>0.1954707370651363</v>
       </c>
       <c r="E15">
-        <v>0.1418133725631741</v>
+        <v>0.1684141508148009</v>
       </c>
       <c r="F15">
-        <v>0.8903062420968268</v>
+        <v>1.543149612842484</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3449288570539153</v>
+        <v>0.7773812193544316</v>
       </c>
       <c r="J15">
-        <v>0.1269563538344158</v>
+        <v>0.1911805502742467</v>
       </c>
       <c r="K15">
-        <v>1.466469247708233</v>
+        <v>0.4893915687348738</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5164951629098482</v>
+        <v>0.2669511521220187</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.947831402740007</v>
+        <v>3.760412279374691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.250862089866359</v>
+        <v>0.4300201907129235</v>
       </c>
       <c r="C16">
-        <v>0.2025741847619571</v>
+        <v>0.06340433458467487</v>
       </c>
       <c r="D16">
-        <v>0.2121265177400886</v>
+        <v>0.1923493600175732</v>
       </c>
       <c r="E16">
-        <v>0.1350457573353374</v>
+        <v>0.167166248214059</v>
       </c>
       <c r="F16">
-        <v>0.8696866258445368</v>
+        <v>1.54440304241021</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3468220257679242</v>
+        <v>0.7813068653346846</v>
       </c>
       <c r="J16">
-        <v>0.1224862327462759</v>
+        <v>0.1907698742955048</v>
       </c>
       <c r="K16">
-        <v>1.374095665087395</v>
+        <v>0.4617271902075402</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4837155057186138</v>
+        <v>0.2580741752195479</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.923479672875544</v>
+        <v>3.771012517713302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.199228726824032</v>
+        <v>0.4145261268048444</v>
       </c>
       <c r="C17">
-        <v>0.1943568392384663</v>
+        <v>0.06094148581738068</v>
       </c>
       <c r="D17">
-        <v>0.2042141704975222</v>
+        <v>0.1904518640100292</v>
       </c>
       <c r="E17">
-        <v>0.1309397493949795</v>
+        <v>0.1664192544226317</v>
       </c>
       <c r="F17">
-        <v>0.8575543174489866</v>
+        <v>1.545376137046418</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.348243213033431</v>
+        <v>0.7838190651000652</v>
       </c>
       <c r="J17">
-        <v>0.1198031492685416</v>
+        <v>0.1905413912375948</v>
       </c>
       <c r="K17">
-        <v>1.317546960704533</v>
+        <v>0.4447526253518959</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4636872674486057</v>
+        <v>0.2526475032521915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.90987624621971</v>
+        <v>3.778030846356529</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.169565984367324</v>
+        <v>0.4056143728963377</v>
       </c>
       <c r="C18">
-        <v>0.1896367585524672</v>
+        <v>0.05952426400597233</v>
       </c>
       <c r="D18">
-        <v>0.1996782954296492</v>
+        <v>0.1893668889529323</v>
       </c>
       <c r="E18">
-        <v>0.1285941945021811</v>
+        <v>0.1659964360963606</v>
       </c>
       <c r="F18">
-        <v>0.8507597588438571</v>
+        <v>1.546010893294408</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3491532973697531</v>
+        <v>0.7853022100650016</v>
       </c>
       <c r="J18">
-        <v>0.1182808579274806</v>
+        <v>0.1904185994958283</v>
       </c>
       <c r="K18">
-        <v>1.285061035824612</v>
+        <v>0.4349882559562275</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4521953372297673</v>
+        <v>0.2495332956209992</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.902526581341135</v>
+        <v>3.782257026545665</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.159528401408664</v>
+        <v>0.4025970268520496</v>
       </c>
       <c r="C19">
-        <v>0.1880396361862466</v>
+        <v>0.05904430653923498</v>
       </c>
       <c r="D19">
-        <v>0.1981450459665979</v>
+        <v>0.1890006397549655</v>
       </c>
       <c r="E19">
-        <v>0.1278027338801522</v>
+        <v>0.165854451952395</v>
       </c>
       <c r="F19">
-        <v>0.8484901805735774</v>
+        <v>1.546238705085315</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3494770890878911</v>
+        <v>0.7858109369011608</v>
       </c>
       <c r="J19">
-        <v>0.1177689594376474</v>
+        <v>0.1903785064171757</v>
       </c>
       <c r="K19">
-        <v>1.274068208526501</v>
+        <v>0.4316820459834503</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4483089547182431</v>
+        <v>0.2484800988654854</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.900118140925883</v>
+        <v>3.783720472713838</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.204721434260506</v>
+        <v>0.4161754981256252</v>
       </c>
       <c r="C20">
-        <v>0.1952309190555894</v>
+        <v>0.06120372872889845</v>
       </c>
       <c r="D20">
-        <v>0.2050548733009805</v>
+        <v>0.190653192546236</v>
       </c>
       <c r="E20">
-        <v>0.1313751582388143</v>
+        <v>0.166498066343685</v>
       </c>
       <c r="F20">
-        <v>0.8588266755949263</v>
+        <v>1.54526478194667</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3480822733953097</v>
+        <v>0.7835476840941773</v>
       </c>
       <c r="J20">
-        <v>0.1200865822894173</v>
+        <v>0.1905648210746662</v>
       </c>
       <c r="K20">
-        <v>1.32356248975691</v>
+        <v>0.4465597095291685</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4658163881358632</v>
+        <v>0.2532244514132813</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.911274870462762</v>
+        <v>3.777264128829756</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.357014928885235</v>
+        <v>0.4617963102508327</v>
       </c>
       <c r="C21">
-        <v>0.2194734556092044</v>
+        <v>0.06845108606265171</v>
       </c>
       <c r="D21">
-        <v>0.2284569001178198</v>
+        <v>0.1962819586817801</v>
       </c>
       <c r="E21">
-        <v>0.1435753402028617</v>
+        <v>0.1687420593255311</v>
       </c>
       <c r="F21">
-        <v>0.8957950874203817</v>
+        <v>1.542889093437822</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3445227514577063</v>
+        <v>0.7763998335899878</v>
       </c>
       <c r="J21">
-        <v>0.1281294246769207</v>
+        <v>0.1912938241653919</v>
       </c>
       <c r="K21">
-        <v>1.490359027327571</v>
+        <v>0.4965327742660577</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5249849432005718</v>
+        <v>0.2692488553708969</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.954544967097377</v>
+        <v>3.75783485045767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.456949768170631</v>
+        <v>0.4916085532684633</v>
       </c>
       <c r="C22">
-        <v>0.2353900836694436</v>
+        <v>0.07318131348817758</v>
       </c>
       <c r="D22">
-        <v>0.2439031160048586</v>
+        <v>0.2000171255104419</v>
       </c>
       <c r="E22">
-        <v>0.1517072231699643</v>
+        <v>0.1702691814416433</v>
       </c>
       <c r="F22">
-        <v>0.9217311466181002</v>
+        <v>1.542004161047615</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3430827604962587</v>
+        <v>0.7720685126266389</v>
       </c>
       <c r="J22">
-        <v>0.1335899434292003</v>
+        <v>0.191846939167327</v>
       </c>
       <c r="K22">
-        <v>1.599819599014694</v>
+        <v>0.5291797355980918</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5639458081184898</v>
+        <v>0.2797833345281262</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.987402884227293</v>
+        <v>3.746823356915513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.403571460553223</v>
+        <v>0.4756977101975508</v>
       </c>
       <c r="C23">
-        <v>0.2268875903015015</v>
+        <v>0.07065730607051535</v>
       </c>
       <c r="D23">
-        <v>0.2356444386119279</v>
+        <v>0.1980184649351315</v>
       </c>
       <c r="E23">
-        <v>0.1473518446492825</v>
+        <v>0.1694486025635626</v>
       </c>
       <c r="F23">
-        <v>0.9077191119621091</v>
+        <v>1.542415402224506</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3437671204708685</v>
+        <v>0.7743490859011075</v>
       </c>
       <c r="J23">
-        <v>0.1306560071601197</v>
+        <v>0.191544722881325</v>
       </c>
       <c r="K23">
-        <v>1.541352324258128</v>
+        <v>0.5117568498988305</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.54312286218709</v>
+        <v>0.2741553135865331</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.96942934009391</v>
+        <v>3.752546074829638</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.202238113749786</v>
+        <v>0.4154298298023491</v>
       </c>
       <c r="C24">
-        <v>0.1948357347259417</v>
+        <v>0.06108517274492442</v>
       </c>
       <c r="D24">
-        <v>0.2046747511369347</v>
+        <v>0.1905621534663311</v>
       </c>
       <c r="E24">
-        <v>0.1311782632037364</v>
+        <v>0.1664624147934042</v>
       </c>
       <c r="F24">
-        <v>0.858250881877467</v>
+        <v>1.545314890990184</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3481547451178884</v>
+        <v>0.7836702544386469</v>
       </c>
       <c r="J24">
-        <v>0.1199583793389465</v>
+        <v>0.1905542017612092</v>
       </c>
       <c r="K24">
-        <v>1.320842793268866</v>
+        <v>0.4457427437553463</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.464853742839459</v>
+        <v>0.2529635955101099</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.910641088795359</v>
+        <v>3.777610166088152</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9863769529242745</v>
+        <v>0.3504240201937137</v>
       </c>
       <c r="C25">
-        <v>0.1604959994583055</v>
+        <v>0.05073524187081091</v>
       </c>
       <c r="D25">
-        <v>0.1718373272829297</v>
+        <v>0.1827649196524277</v>
       </c>
       <c r="E25">
-        <v>0.1143408376761634</v>
+        <v>0.1635027187863116</v>
       </c>
       <c r="F25">
-        <v>0.8118407387925188</v>
+        <v>1.551312420968422</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3563988501131341</v>
+        <v>0.7951848321158437</v>
       </c>
       <c r="J25">
-        <v>0.109211215484315</v>
+        <v>0.1898156137720903</v>
       </c>
       <c r="K25">
-        <v>1.084443892329062</v>
+        <v>0.374497867609108</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3814679796077485</v>
+        <v>0.2303759349418186</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.865198129151821</v>
+        <v>3.811887905216537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3025718484990989</v>
+        <v>0.8281063142442804</v>
       </c>
       <c r="C2">
-        <v>0.04309411454018175</v>
+        <v>0.1353273681358615</v>
       </c>
       <c r="D2">
-        <v>0.1772371813364657</v>
+        <v>0.1480580643625302</v>
       </c>
       <c r="E2">
-        <v>0.1615492402676253</v>
+        <v>0.1023907520936689</v>
       </c>
       <c r="F2">
-        <v>1.558199454538709</v>
+        <v>0.7829511759207151</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8049193884203945</v>
+        <v>0.3651890691640922</v>
       </c>
       <c r="J2">
-        <v>0.1895558923542069</v>
+        <v>0.1018914488206804</v>
       </c>
       <c r="K2">
-        <v>0.3220167570321166</v>
+        <v>0.9111185562955484</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2139809486866682</v>
+        <v>0.3207401485876034</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.843357082501726</v>
+        <v>1.845462052957402</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2701544156444413</v>
+        <v>0.7210532651400001</v>
       </c>
       <c r="C3">
-        <v>0.03790341381315443</v>
+        <v>0.1183041415347219</v>
       </c>
       <c r="D3">
-        <v>0.1736252473569238</v>
+        <v>0.1321502281745808</v>
       </c>
       <c r="E3">
-        <v>0.1603666926146907</v>
+        <v>0.094536195614495</v>
       </c>
       <c r="F3">
-        <v>1.564409928655657</v>
+        <v>0.7663484862810179</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8123006490207594</v>
+        <v>0.3727052225986469</v>
       </c>
       <c r="J3">
-        <v>0.1895573463846745</v>
+        <v>0.09726063608340496</v>
       </c>
       <c r="K3">
-        <v>0.2864403919674601</v>
+        <v>0.7938781383873845</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2030191540003656</v>
+        <v>0.2798988089321099</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.868572058196321</v>
+        <v>1.83985315395546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2502584296813666</v>
+        <v>0.6553629482550889</v>
       </c>
       <c r="C4">
-        <v>0.03471053536303259</v>
+        <v>0.1078570365985172</v>
       </c>
       <c r="D4">
-        <v>0.1714742075439233</v>
+        <v>0.1224726594698353</v>
       </c>
       <c r="E4">
-        <v>0.159710537953675</v>
+        <v>0.0898232251485247</v>
       </c>
       <c r="F4">
-        <v>1.568984973308076</v>
+        <v>0.7575242136964278</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8172196170061099</v>
+        <v>0.3780465236899708</v>
       </c>
       <c r="J4">
-        <v>0.1896458857224843</v>
+        <v>0.09456765549800394</v>
       </c>
       <c r="K4">
-        <v>0.2645940953208878</v>
+        <v>0.7219323662829993</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1963630088338277</v>
+        <v>0.2549461747295965</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.885972563945444</v>
+        <v>1.839995573591438</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2421532912149189</v>
+        <v>0.6285956191111381</v>
       </c>
       <c r="C5">
-        <v>0.03340802738127024</v>
+        <v>0.1035995470461728</v>
       </c>
       <c r="D5">
-        <v>0.1706145094831868</v>
+        <v>0.1185498926232498</v>
       </c>
       <c r="E5">
-        <v>0.15946077961285</v>
+        <v>0.08792878351465916</v>
       </c>
       <c r="F5">
-        <v>1.571041033467566</v>
+        <v>0.7542589572939988</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8193214236659756</v>
+        <v>0.3803997575160416</v>
       </c>
       <c r="J5">
-        <v>0.1897040295657249</v>
+        <v>0.09350633285632171</v>
       </c>
       <c r="K5">
-        <v>0.2556915205097141</v>
+        <v>0.6926147316221005</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1936694803239938</v>
+        <v>0.2448048085741448</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.893545944850473</v>
+        <v>1.840920996567959</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2408076135645558</v>
+        <v>0.624150814534147</v>
       </c>
       <c r="C6">
-        <v>0.03319166527978723</v>
+        <v>0.1028925387052482</v>
       </c>
       <c r="D6">
-        <v>0.1704727788734886</v>
+        <v>0.1178997360419629</v>
       </c>
       <c r="E6">
-        <v>0.1594203735475297</v>
+        <v>0.08761574964174557</v>
       </c>
       <c r="F6">
-        <v>1.571394022390791</v>
+        <v>0.7537363476834074</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8196763033330079</v>
+        <v>0.3808010056478004</v>
       </c>
       <c r="J6">
-        <v>0.189715017582138</v>
+        <v>0.09333223195988793</v>
       </c>
       <c r="K6">
-        <v>0.2542132687093925</v>
+        <v>0.6877463510108726</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1932233692416254</v>
+        <v>0.2431223574787502</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.894832646777573</v>
+        <v>1.841126074077863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2501491095899837</v>
+        <v>0.6550019570879897</v>
       </c>
       <c r="C7">
-        <v>0.03469297480204148</v>
+        <v>0.107799621401611</v>
       </c>
       <c r="D7">
-        <v>0.1714625449290992</v>
+        <v>0.1224196731244973</v>
       </c>
       <c r="E7">
-        <v>0.1597070981829205</v>
+        <v>0.08979757212764028</v>
       </c>
       <c r="F7">
-        <v>1.569011925722023</v>
+        <v>0.7574788560000059</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8172475687777983</v>
+        <v>0.3780775529133678</v>
       </c>
       <c r="J7">
-        <v>0.1896465805048848</v>
+        <v>0.09455319822141917</v>
       </c>
       <c r="K7">
-        <v>0.2644740314967606</v>
+        <v>0.721536986847326</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1963266061750062</v>
+        <v>0.2548093006133669</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.88607274727454</v>
+        <v>1.840004586473668</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2913928612525751</v>
+        <v>0.7911808506926263</v>
       </c>
       <c r="C8">
-        <v>0.04130559595199657</v>
+        <v>0.129455725101451</v>
       </c>
       <c r="D8">
-        <v>0.1759779981410503</v>
+        <v>0.1425533361649656</v>
       </c>
       <c r="E8">
-        <v>0.1611270088996726</v>
+        <v>0.09965881326953863</v>
       </c>
       <c r="F8">
-        <v>1.560182795438941</v>
+        <v>0.7769337749460945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.807384165058032</v>
+        <v>0.3676261666273355</v>
       </c>
       <c r="J8">
-        <v>0.1895382165538564</v>
+        <v>0.1002624762490356</v>
       </c>
       <c r="K8">
-        <v>0.3097508076795066</v>
+        <v>0.8706799016504476</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2101859793158098</v>
+        <v>0.3066297018801691</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.851653118463162</v>
+        <v>1.84276254392573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3723202437822124</v>
+        <v>1.058957371231429</v>
       </c>
       <c r="C9">
-        <v>0.05422488829779581</v>
+        <v>0.1720400501394721</v>
       </c>
       <c r="D9">
-        <v>0.1853584434145574</v>
+        <v>0.1828309703774522</v>
       </c>
       <c r="E9">
-        <v>0.16446469926478</v>
+        <v>0.1199382171816126</v>
       </c>
       <c r="F9">
-        <v>1.548908488752915</v>
+        <v>0.8266090983974195</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.791110994519844</v>
+        <v>0.3531800562878225</v>
       </c>
       <c r="J9">
-        <v>0.1900203076769671</v>
+        <v>0.1127336331296647</v>
       </c>
       <c r="K9">
-        <v>0.3985011947384294</v>
+        <v>1.163928307332498</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2379481681597184</v>
+        <v>0.4094383489675764</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.799373690857834</v>
+        <v>1.878263086301445</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4317881612395809</v>
+        <v>1.256758898629272</v>
       </c>
       <c r="C10">
-        <v>0.06368527213962238</v>
+        <v>0.2035127512312016</v>
       </c>
       <c r="D10">
-        <v>0.192566744385033</v>
+        <v>0.2130314740619781</v>
       </c>
       <c r="E10">
-        <v>0.1672524102339707</v>
+        <v>0.13551651370814</v>
       </c>
       <c r="F10">
-        <v>1.544302173874485</v>
+        <v>0.8710963491053292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7810253816209709</v>
+        <v>0.3466726153454047</v>
       </c>
       <c r="J10">
-        <v>0.1907971141277329</v>
+        <v>0.1227952873689162</v>
       </c>
       <c r="K10">
-        <v>0.4636639504626316</v>
+        <v>1.380553927380021</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2586943497033118</v>
+        <v>0.4860047743710112</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.770237344603004</v>
+        <v>1.9250973946572</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4588402955390336</v>
+        <v>1.347124488642777</v>
       </c>
       <c r="C11">
-        <v>0.06798182917664519</v>
+        <v>0.2178986015012612</v>
       </c>
       <c r="D11">
-        <v>0.1959139221464739</v>
+        <v>0.2269319211430911</v>
       </c>
       <c r="E11">
-        <v>0.168593118261537</v>
+        <v>0.1427757960519749</v>
       </c>
       <c r="F11">
-        <v>1.543004106692621</v>
+        <v>0.8932983893418651</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7768431767387192</v>
+        <v>0.3447027328610233</v>
       </c>
       <c r="J11">
-        <v>0.1912421149287837</v>
+        <v>0.1275966497462946</v>
       </c>
       <c r="K11">
-        <v>0.4932953036928893</v>
+        <v>1.479526250579454</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2682068844891035</v>
+        <v>0.5211346572343913</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.758995532142421</v>
+        <v>1.951479961424212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4690837789742943</v>
+        <v>1.38141186860895</v>
       </c>
       <c r="C12">
-        <v>0.0696077601963907</v>
+        <v>0.2233584757285456</v>
       </c>
       <c r="D12">
-        <v>0.1971911171033298</v>
+        <v>0.2322215152786242</v>
       </c>
       <c r="E12">
-        <v>0.1691112057528201</v>
+        <v>0.1455517076842696</v>
       </c>
       <c r="F12">
-        <v>1.542627120182715</v>
+        <v>0.9020085709408647</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7753178332257171</v>
+        <v>0.3441080670544707</v>
       </c>
       <c r="J12">
-        <v>0.1914237823454243</v>
+        <v>0.1294496064100912</v>
       </c>
       <c r="K12">
-        <v>0.5045138142900782</v>
+        <v>1.51708075318308</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2718196598879885</v>
+        <v>0.5344869152934635</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.755027872163481</v>
+        <v>1.962251463392448</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4668776958376384</v>
+        <v>1.374024238210296</v>
       </c>
       <c r="C13">
-        <v>0.06925763612919411</v>
+        <v>0.2221820087882094</v>
       </c>
       <c r="D13">
-        <v>0.1969156208699161</v>
+        <v>0.2310811178168422</v>
       </c>
       <c r="E13">
-        <v>0.1689991649281062</v>
+        <v>0.1449526297121047</v>
       </c>
       <c r="F13">
-        <v>1.542703217291745</v>
+        <v>0.900118875453245</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.775643747138087</v>
+        <v>0.3442292628865822</v>
       </c>
       <c r="J13">
-        <v>0.1913840722627924</v>
+        <v>0.1290489497437193</v>
       </c>
       <c r="K13">
-        <v>0.5020978162128245</v>
+        <v>1.508989108209704</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2710411164637279</v>
+        <v>0.5316089687721828</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.75586950920777</v>
+        <v>1.959896045319397</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.459683047740981</v>
+        <v>1.349943896052594</v>
       </c>
       <c r="C14">
-        <v>0.06811561759695905</v>
+        <v>0.2183475285523002</v>
       </c>
       <c r="D14">
-        <v>0.1960188040823709</v>
+        <v>0.2273665673864258</v>
       </c>
       <c r="E14">
-        <v>0.1686355336444549</v>
+        <v>0.1430036184242915</v>
       </c>
       <c r="F14">
-        <v>1.542970796324482</v>
+        <v>0.8940087927808236</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.776716515971426</v>
+        <v>0.3446507244276624</v>
       </c>
       <c r="J14">
-        <v>0.1912567972837209</v>
+        <v>0.1277483813251266</v>
       </c>
       <c r="K14">
-        <v>0.4942183055426028</v>
+        <v>1.482614276930292</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2685038986967996</v>
+        <v>0.5222321292813135</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.758663311063344</v>
+        <v>1.952350183240696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4552760269953069</v>
+        <v>1.335203221652762</v>
       </c>
       <c r="C15">
-        <v>0.06741595522838395</v>
+        <v>0.2160004696676054</v>
       </c>
       <c r="D15">
-        <v>0.1954707370651363</v>
+        <v>0.2250947341579206</v>
       </c>
       <c r="E15">
-        <v>0.1684141508148009</v>
+        <v>0.1418133725631705</v>
       </c>
       <c r="F15">
-        <v>1.543149612842484</v>
+        <v>0.8903062420968126</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7773812193544316</v>
+        <v>0.3449288570539295</v>
       </c>
       <c r="J15">
-        <v>0.1911805502742467</v>
+        <v>0.1269563538344869</v>
       </c>
       <c r="K15">
-        <v>0.4893915687348738</v>
+        <v>1.466469247708233</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2669511521220187</v>
+        <v>0.516495162909834</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.760412279374691</v>
+        <v>1.947831402740007</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4300201907129235</v>
+        <v>1.250862089866445</v>
       </c>
       <c r="C16">
-        <v>0.06340433458467487</v>
+        <v>0.2025741847616302</v>
       </c>
       <c r="D16">
-        <v>0.1923493600175732</v>
+        <v>0.2121265177403018</v>
       </c>
       <c r="E16">
-        <v>0.167166248214059</v>
+        <v>0.1350457573353232</v>
       </c>
       <c r="F16">
-        <v>1.54440304241021</v>
+        <v>0.8696866258445368</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7813068653346846</v>
+        <v>0.34682202576791</v>
       </c>
       <c r="J16">
-        <v>0.1907698742955048</v>
+        <v>0.122486232746347</v>
       </c>
       <c r="K16">
-        <v>0.4617271902075402</v>
+        <v>1.374095665087566</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2580741752195479</v>
+        <v>0.4837155057186067</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.771012517713302</v>
+        <v>1.923479672875601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4145261268048444</v>
+        <v>1.19922872682389</v>
       </c>
       <c r="C17">
-        <v>0.06094148581738068</v>
+        <v>0.1943568392381536</v>
       </c>
       <c r="D17">
-        <v>0.1904518640100292</v>
+        <v>0.2042141704973943</v>
       </c>
       <c r="E17">
-        <v>0.1664192544226317</v>
+        <v>0.1309397493949653</v>
       </c>
       <c r="F17">
-        <v>1.545376137046418</v>
+        <v>0.8575543174489866</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7838190651000652</v>
+        <v>0.3482432130334168</v>
       </c>
       <c r="J17">
-        <v>0.1905413912375948</v>
+        <v>0.1198031492684777</v>
       </c>
       <c r="K17">
-        <v>0.4447526253518959</v>
+        <v>1.317546960704391</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2526475032521915</v>
+        <v>0.4636872674485986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.778030846356529</v>
+        <v>1.90987624621971</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4056143728963377</v>
+        <v>1.169565984367324</v>
       </c>
       <c r="C18">
-        <v>0.05952426400597233</v>
+        <v>0.1896367585527088</v>
       </c>
       <c r="D18">
-        <v>0.1893668889529323</v>
+        <v>0.1996782954295213</v>
       </c>
       <c r="E18">
-        <v>0.1659964360963606</v>
+        <v>0.1285941945021634</v>
       </c>
       <c r="F18">
-        <v>1.546010893294408</v>
+        <v>0.8507597588438571</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7853022100650016</v>
+        <v>0.3491532973697566</v>
       </c>
       <c r="J18">
-        <v>0.1904185994958283</v>
+        <v>0.1182808579275445</v>
       </c>
       <c r="K18">
-        <v>0.4349882559562275</v>
+        <v>1.285061035824668</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2495332956209992</v>
+        <v>0.4521953372297673</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.782257026545665</v>
+        <v>1.902526581341192</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4025970268520496</v>
+        <v>1.159528401408608</v>
       </c>
       <c r="C19">
-        <v>0.05904430653923498</v>
+        <v>0.1880396361864882</v>
       </c>
       <c r="D19">
-        <v>0.1890006397549655</v>
+        <v>0.1981450459666121</v>
       </c>
       <c r="E19">
-        <v>0.165854451952395</v>
+        <v>0.1278027338801806</v>
       </c>
       <c r="F19">
-        <v>1.546238705085315</v>
+        <v>0.8484901805735774</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7858109369011608</v>
+        <v>0.349477089087884</v>
       </c>
       <c r="J19">
-        <v>0.1903785064171757</v>
+        <v>0.1177689594376545</v>
       </c>
       <c r="K19">
-        <v>0.4316820459834503</v>
+        <v>1.274068208526501</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2484800988654854</v>
+        <v>0.4483089547182715</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.783720472713838</v>
+        <v>1.900118140925855</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4161754981256252</v>
+        <v>1.204721434260506</v>
       </c>
       <c r="C20">
-        <v>0.06120372872889845</v>
+        <v>0.1952309190559163</v>
       </c>
       <c r="D20">
-        <v>0.190653192546236</v>
+        <v>0.2050548733009947</v>
       </c>
       <c r="E20">
-        <v>0.166498066343685</v>
+        <v>0.1313751582388427</v>
       </c>
       <c r="F20">
-        <v>1.54526478194667</v>
+        <v>0.8588266755949263</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7835476840941773</v>
+        <v>0.3480822733953062</v>
       </c>
       <c r="J20">
-        <v>0.1905648210746662</v>
+        <v>0.1200865822894812</v>
       </c>
       <c r="K20">
-        <v>0.4465597095291685</v>
+        <v>1.323562489756938</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2532244514132813</v>
+        <v>0.4658163881358774</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.777264128829756</v>
+        <v>1.911274870462762</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4617963102508327</v>
+        <v>1.357014928885206</v>
       </c>
       <c r="C21">
-        <v>0.06845108606265171</v>
+        <v>0.2194734556089628</v>
       </c>
       <c r="D21">
-        <v>0.1962819586817801</v>
+        <v>0.2284569001176351</v>
       </c>
       <c r="E21">
-        <v>0.1687420593255311</v>
+        <v>0.1435753402028617</v>
       </c>
       <c r="F21">
-        <v>1.542889093437822</v>
+        <v>0.8957950874203533</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7763998335899878</v>
+        <v>0.3445227514576921</v>
       </c>
       <c r="J21">
-        <v>0.1912938241653919</v>
+        <v>0.1281294246769207</v>
       </c>
       <c r="K21">
-        <v>0.4965327742660577</v>
+        <v>1.490359027327543</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2692488553708969</v>
+        <v>0.5249849432005647</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.75783485045767</v>
+        <v>1.954544967097348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4916085532684633</v>
+        <v>1.456949768170659</v>
       </c>
       <c r="C22">
-        <v>0.07318131348817758</v>
+        <v>0.2353900836693299</v>
       </c>
       <c r="D22">
-        <v>0.2000171255104419</v>
+        <v>0.243903116004887</v>
       </c>
       <c r="E22">
-        <v>0.1702691814416433</v>
+        <v>0.1517072231699608</v>
       </c>
       <c r="F22">
-        <v>1.542004161047615</v>
+        <v>0.9217311466181002</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7720685126266389</v>
+        <v>0.3430827604962623</v>
       </c>
       <c r="J22">
-        <v>0.191846939167327</v>
+        <v>0.133589943429179</v>
       </c>
       <c r="K22">
-        <v>0.5291797355980918</v>
+        <v>1.599819599014722</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2797833345281262</v>
+        <v>0.5639458081185111</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.746823356915513</v>
+        <v>1.987402884227407</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4756977101975508</v>
+        <v>1.40357146055328</v>
       </c>
       <c r="C23">
-        <v>0.07065730607051535</v>
+        <v>0.2268875903015726</v>
       </c>
       <c r="D23">
-        <v>0.1980184649351315</v>
+        <v>0.2356444386120131</v>
       </c>
       <c r="E23">
-        <v>0.1694486025635626</v>
+        <v>0.147351844649279</v>
       </c>
       <c r="F23">
-        <v>1.542415402224506</v>
+        <v>0.9077191119620949</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7743490859011075</v>
+        <v>0.3437671204708614</v>
       </c>
       <c r="J23">
-        <v>0.191544722881325</v>
+        <v>0.1306560071601055</v>
       </c>
       <c r="K23">
-        <v>0.5117568498988305</v>
+        <v>1.541352324258099</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2741553135865331</v>
+        <v>0.5431228621871114</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.752546074829638</v>
+        <v>1.969429340093882</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4154298298023491</v>
+        <v>1.202238113749644</v>
       </c>
       <c r="C24">
-        <v>0.06108517274492442</v>
+        <v>0.1948357347255154</v>
       </c>
       <c r="D24">
-        <v>0.1905621534663311</v>
+        <v>0.2046747511368636</v>
       </c>
       <c r="E24">
-        <v>0.1664624147934042</v>
+        <v>0.1311782632037328</v>
       </c>
       <c r="F24">
-        <v>1.545314890990184</v>
+        <v>0.8582508818774812</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7836702544386469</v>
+        <v>0.3481547451179061</v>
       </c>
       <c r="J24">
-        <v>0.1905542017612092</v>
+        <v>0.1199583793389607</v>
       </c>
       <c r="K24">
-        <v>0.4457427437553463</v>
+        <v>1.32084279326881</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2529635955101099</v>
+        <v>0.4648537428394803</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.777610166088152</v>
+        <v>1.910641088795302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3504240201937137</v>
+        <v>0.9863769529243882</v>
       </c>
       <c r="C25">
-        <v>0.05073524187081091</v>
+        <v>0.1604959994583623</v>
       </c>
       <c r="D25">
-        <v>0.1827649196524277</v>
+        <v>0.1718373272828018</v>
       </c>
       <c r="E25">
-        <v>0.1635027187863116</v>
+        <v>0.1143408376761563</v>
       </c>
       <c r="F25">
-        <v>1.551312420968422</v>
+        <v>0.8118407387925046</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7951848321158437</v>
+        <v>0.356398850113127</v>
       </c>
       <c r="J25">
-        <v>0.1898156137720903</v>
+        <v>0.1092112154843718</v>
       </c>
       <c r="K25">
-        <v>0.374497867609108</v>
+        <v>1.084443892329091</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2303759349418186</v>
+        <v>0.3814679796077556</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.811887905216537</v>
+        <v>1.865198129151793</v>
       </c>
     </row>
   </sheetData>
